--- a/Test/Bonds.xlsx
+++ b/Test/Bonds.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Coupon Rate" sheetId="1" r:id="rId1"/>
+    <sheet name="YTM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t xml:space="preserve">Years = </t>
   </si>
@@ -34,6 +35,30 @@
   </si>
   <si>
     <t xml:space="preserve">Coupon Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTM = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present Value = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Value = </t>
+  </si>
+  <si>
+    <t>Coupon Payment =</t>
+  </si>
+  <si>
+    <t>The bond is currently trading at a premium because the coupon rate is greater than the yield to maturity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRR = </t>
+  </si>
+  <si>
+    <t>You cannont compare bonds from two different time lines using IRR</t>
   </si>
 </sst>
 </file>
@@ -43,13 +68,27 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -92,6 +131,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,59 +434,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
+        <v>31.51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <f>(B4*B2)/(B3+10)</f>
+        <v>3.1198019801980198E-2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11">
+        <f>PMT(F3/F2,F1*F2,-F4,F5)</f>
+        <v>31.512431948257248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12">
+        <f>F6/F5</f>
+        <v>3.1512431948257251E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <f>(B4*B2)/(B3+10)</f>
-        <v>1.9801980198019802E-2</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>880</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="2">
+        <v>111.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <f>RATE(B1*B2,B4*B5/B2,-B3,B4)*B2</f>
+        <v>9.0925190460480962E-2</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <f>F4*F5/F2</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="11">
+        <f>-PV(J5/J2,J1*J2,J3,J4)</f>
+        <v>111.46992121856526</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="12">
+        <f>RATE(N1*N2,-N3,N5,-N4)</f>
+        <v>7.799344810219673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="10"/>
+      <c r="J7" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="601" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test/Bonds.xlsx
+++ b/Test/Bonds.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t xml:space="preserve">Years = </t>
   </si>
@@ -568,7 +568,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -590,16 +590,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1000</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -641,17 +641,17 @@
       <c r="B3">
         <v>880</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.06</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>3</v>
@@ -667,17 +667,18 @@
       <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <f>F2*F3/F1</f>
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>8</v>
@@ -693,17 +694,11 @@
       <c r="B5" s="6">
         <v>0.06</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>6</v>
@@ -722,13 +717,6 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11">
-        <f>F4*F5/F2</f>
-        <v>7.0000000000000009</v>
-      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="13" t="s">
@@ -736,7 +724,7 @@
       </c>
       <c r="J6" s="11">
         <f>-PV(J5/J2,J1*J2,J3,J4)</f>
-        <v>111.46992121856526</v>
+        <v>981.91981832474448</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>11</v>

--- a/Test/Bonds.xlsx
+++ b/Test/Bonds.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coupon Rate" sheetId="1" r:id="rId1"/>
     <sheet name="YTM" sheetId="2" r:id="rId2"/>
+    <sheet name="Zero Coupon" sheetId="4" r:id="rId3"/>
+    <sheet name="Credit Spread" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t xml:space="preserve">Years = </t>
   </si>
@@ -59,6 +61,21 @@
   </si>
   <si>
     <t>You cannont compare bonds from two different time lines using IRR</t>
+  </si>
+  <si>
+    <t>The bond is currently trading at a discount because the coupon rate is lower than the yield to maturity</t>
+  </si>
+  <si>
+    <t>always zero with zero coupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTM 1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTM 2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Spread = </t>
   </si>
 </sst>
 </file>
@@ -120,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -131,7 +148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -147,6 +163,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -154,6 +171,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,50 +514,55 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>31.51</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <f>(B4*B2)/(B3+10)</f>
-        <v>3.1198019801980198E-2</v>
+        <v>7.3267326732673263E-2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>PMT(F3/F2,F1*F2,-F4,F5)</f>
         <v>31.512431948257248</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f>F6/F5</f>
         <v>3.1512431948257251E-2</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -568,16 +593,16 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -599,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -619,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -644,14 +669,14 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
-        <v>0.06</v>
+      <c r="F3" s="20">
+        <v>0.123</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>12.3</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>3</v>
@@ -667,18 +692,18 @@
       <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>F2*F3/F1</f>
-        <v>60</v>
+        <v>12.3</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>8</v>
@@ -691,55 +716,168 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.06</v>
+      <c r="B5" s="15">
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="6">
-        <v>7.0000000000000007E-2</v>
+      <c r="J5" s="20">
+        <v>0.127</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>RATE(B1*B2,B4*B5/B2,-B3,B4)*B2</f>
-        <v>9.0925190460480962E-2</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13" t="s">
+        <v>0.1044133974675395</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <f>-PV(J5/J2,J1*J2,J3,J4)</f>
-        <v>981.91981832474448</v>
-      </c>
-      <c r="M6" s="13" t="s">
+        <v>98.582747888080121</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <f>RATE(N1*N2,-N3,N5,-N4)</f>
         <v>7.799344810219673E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="10"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="601" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10">
+        <f>-PV(B5/B2,B1*B2,B3,B4)</f>
+        <v>699.80750092710559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="19">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="21">
+        <f>B1-B2</f>
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test/Bonds.xlsx
+++ b/Test/Bonds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Coupon Rate" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t xml:space="preserve">Years = </t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">Credit Spread = </t>
+  </si>
+  <si>
+    <t>Higher YTM the higher the risk of default</t>
   </si>
 </sst>
 </file>
@@ -456,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +575,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
@@ -843,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
